--- a/Templates/800-171 Assessment Template.xlsx
+++ b/Templates/800-171 Assessment Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68b820151c6b19e9/Desktop/SecurityBagel/CMMC-Bagel/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="8_{27CE37C6-FF87-437D-8D63-4B30B0E60EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D073A6AC-C573-49F2-A195-6D76E95BBF8D}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="8_{27CE37C6-FF87-437D-8D63-4B30B0E60EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5A3AB07-5159-4962-99FA-DA0CA2C2AF93}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C313FF1D-BF60-4692-B818-A4C0D99BA2FB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C313FF1D-BF60-4692-B818-A4C0D99BA2FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Assessment Scope Name" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2943" uniqueCount="1470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2936" uniqueCount="1469">
   <si>
     <t>Sort-As</t>
   </si>
@@ -4520,9 +4520,6 @@
   </si>
   <si>
     <t>Met</t>
-  </si>
-  <si>
-    <t>https://securitybagel.github.io/CMMC-Bagel-Lite/policy-example.html</t>
   </si>
   <si>
     <t>Quarterly</t>
@@ -5125,8 +5122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60066FE1-9CE5-4478-8ECD-6949E065A1DA}">
   <dimension ref="A1:S321"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5242,20 +5239,18 @@
       <c r="J2" s="9" t="s">
         <v>1460</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>1461</v>
-      </c>
+      <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="9" t="s">
+        <v>1461</v>
+      </c>
+      <c r="P2" s="9" t="s">
         <v>1462</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>1463</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>1464</v>
       </c>
       <c r="R2" s="11">
         <v>45371</v>
@@ -5291,7 +5286,7 @@
         <v>24</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="K3" s="10"/>
       <c r="L3" s="12"/>
@@ -5334,22 +5329,20 @@
       <c r="J4" s="9" t="s">
         <v>1460</v>
       </c>
-      <c r="K4" s="10" t="s">
-        <v>1461</v>
-      </c>
+      <c r="K4" s="10"/>
       <c r="L4" s="12" t="s">
         <v>1458</v>
       </c>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="9" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="P4" s="9" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q4" s="9" t="s">
         <v>1463</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>1464</v>
       </c>
       <c r="R4" s="11">
         <v>45585</v>
@@ -5385,30 +5378,28 @@
         <v>24</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>1467</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>1461</v>
-      </c>
+        <v>1466</v>
+      </c>
+      <c r="K5" s="10"/>
       <c r="L5" s="12" t="s">
         <v>1458</v>
       </c>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="9" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="P5" s="9" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q5" s="9" t="s">
         <v>1463</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>1464</v>
       </c>
       <c r="R5" s="11">
         <v>45585</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="405" x14ac:dyDescent="0.25">
@@ -5442,22 +5433,20 @@
       <c r="J6" s="9" t="s">
         <v>1460</v>
       </c>
-      <c r="K6" s="10" t="s">
-        <v>1461</v>
-      </c>
+      <c r="K6" s="10"/>
       <c r="L6" s="12" t="s">
         <v>1458</v>
       </c>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="9" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="P6" s="9" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q6" s="9" t="s">
         <v>1463</v>
-      </c>
-      <c r="Q6" s="9" t="s">
-        <v>1464</v>
       </c>
       <c r="R6" s="11">
         <v>45585</v>
@@ -5495,22 +5484,20 @@
       <c r="J7" s="9" t="s">
         <v>1460</v>
       </c>
-      <c r="K7" s="10" t="s">
-        <v>1461</v>
-      </c>
+      <c r="K7" s="10"/>
       <c r="L7" s="12" t="s">
         <v>1458</v>
       </c>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="9" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="P7" s="9" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q7" s="9" t="s">
         <v>1463</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>1464</v>
       </c>
       <c r="R7" s="11">
         <v>45585</v>
@@ -5548,28 +5535,26 @@
       <c r="J8" s="9" t="s">
         <v>1460</v>
       </c>
-      <c r="K8" s="10" t="s">
-        <v>1461</v>
-      </c>
+      <c r="K8" s="10"/>
       <c r="L8" s="12" t="s">
         <v>1458</v>
       </c>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="9" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="P8" s="9" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q8" s="9" t="s">
         <v>1463</v>
-      </c>
-      <c r="Q8" s="9" t="s">
-        <v>1464</v>
       </c>
       <c r="R8" s="11">
         <v>45585</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="195" x14ac:dyDescent="0.25">
@@ -5601,24 +5586,22 @@
         <v>47</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>1467</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>1461</v>
-      </c>
+        <v>1466</v>
+      </c>
+      <c r="K9" s="10"/>
       <c r="L9" s="12" t="s">
         <v>1458</v>
       </c>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="9" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="P9" s="9" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Q9" s="9" t="s">
         <v>1463</v>
-      </c>
-      <c r="Q9" s="9" t="s">
-        <v>1464</v>
       </c>
       <c r="R9" s="11">
         <v>45585</v>
@@ -5654,7 +5637,7 @@
         <v>58</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="4"/>
+      <c r="K10" s="10"/>
       <c r="L10" s="6"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -5693,7 +5676,7 @@
         <v>58</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="4"/>
+      <c r="K11" s="10"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -5732,7 +5715,7 @@
         <v>58</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="4"/>
+      <c r="K12" s="10"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -5771,7 +5754,7 @@
         <v>58</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="4"/>
+      <c r="K13" s="10"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -5810,7 +5793,7 @@
         <v>58</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="4"/>
+      <c r="K14" s="10"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -5849,7 +5832,7 @@
         <v>78</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="4"/>
+      <c r="K15" s="10"/>
       <c r="L15" s="6"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -5888,7 +5871,7 @@
         <v>78</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="4"/>
+      <c r="K16" s="10"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -5927,7 +5910,7 @@
         <v>78</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="4"/>
+      <c r="K17" s="10"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -5966,7 +5949,7 @@
         <v>92</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="4"/>
+      <c r="K18" s="10"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -6005,7 +5988,7 @@
         <v>92</v>
       </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="4"/>
+      <c r="K19" s="10"/>
       <c r="L19" s="6"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
@@ -6044,7 +6027,7 @@
         <v>92</v>
       </c>
       <c r="J20" s="1"/>
-      <c r="K20" s="4"/>
+      <c r="K20" s="10"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -6083,7 +6066,7 @@
         <v>92</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="4"/>
+      <c r="K21" s="10"/>
       <c r="L21" s="6"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -6122,7 +6105,7 @@
         <v>109</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="K22" s="4"/>
+      <c r="K22" s="10"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -6161,7 +6144,7 @@
         <v>109</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="4"/>
+      <c r="K23" s="10"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -6200,7 +6183,7 @@
         <v>120</v>
       </c>
       <c r="J24" s="1"/>
-      <c r="K24" s="4"/>
+      <c r="K24" s="10"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
@@ -6239,7 +6222,7 @@
         <v>120</v>
       </c>
       <c r="J25" s="1"/>
-      <c r="K25" s="4"/>
+      <c r="K25" s="10"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
@@ -6278,7 +6261,7 @@
         <v>120</v>
       </c>
       <c r="J26" s="1"/>
-      <c r="K26" s="4"/>
+      <c r="K26" s="10"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -6317,7 +6300,7 @@
         <v>120</v>
       </c>
       <c r="J27" s="1"/>
-      <c r="K27" s="4"/>
+      <c r="K27" s="10"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
@@ -6356,7 +6339,7 @@
         <v>137</v>
       </c>
       <c r="J28" s="1"/>
-      <c r="K28" s="4"/>
+      <c r="K28" s="10"/>
       <c r="L28" s="6"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
@@ -6395,7 +6378,7 @@
         <v>137</v>
       </c>
       <c r="J29" s="1"/>
-      <c r="K29" s="4"/>
+      <c r="K29" s="10"/>
       <c r="L29" s="4"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
@@ -6434,7 +6417,7 @@
         <v>148</v>
       </c>
       <c r="J30" s="1"/>
-      <c r="K30" s="4"/>
+      <c r="K30" s="10"/>
       <c r="L30" s="4"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
@@ -6473,7 +6456,7 @@
         <v>148</v>
       </c>
       <c r="J31" s="1"/>
-      <c r="K31" s="4"/>
+      <c r="K31" s="10"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
@@ -6512,7 +6495,7 @@
         <v>158</v>
       </c>
       <c r="J32" s="1"/>
-      <c r="K32" s="4"/>
+      <c r="K32" s="10"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
@@ -6551,7 +6534,7 @@
         <v>158</v>
       </c>
       <c r="J33" s="1"/>
-      <c r="K33" s="4"/>
+      <c r="K33" s="10"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
@@ -6590,7 +6573,7 @@
         <v>158</v>
       </c>
       <c r="J34" s="1"/>
-      <c r="K34" s="4"/>
+      <c r="K34" s="10"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
@@ -6629,7 +6612,7 @@
         <v>171</v>
       </c>
       <c r="J35" s="1"/>
-      <c r="K35" s="4"/>
+      <c r="K35" s="10"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
@@ -6668,7 +6651,7 @@
         <v>171</v>
       </c>
       <c r="J36" s="1"/>
-      <c r="K36" s="4"/>
+      <c r="K36" s="10"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
@@ -6707,7 +6690,7 @@
         <v>182</v>
       </c>
       <c r="J37" s="1"/>
-      <c r="K37" s="4"/>
+      <c r="K37" s="10"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
@@ -6746,7 +6729,7 @@
         <v>182</v>
       </c>
       <c r="J38" s="1"/>
-      <c r="K38" s="4"/>
+      <c r="K38" s="10"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
@@ -6785,7 +6768,7 @@
         <v>182</v>
       </c>
       <c r="J39" s="1"/>
-      <c r="K39" s="4"/>
+      <c r="K39" s="10"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
@@ -6824,7 +6807,7 @@
         <v>182</v>
       </c>
       <c r="J40" s="1"/>
-      <c r="K40" s="4"/>
+      <c r="K40" s="10"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
@@ -6863,7 +6846,7 @@
         <v>198</v>
       </c>
       <c r="J41" s="1"/>
-      <c r="K41" s="4"/>
+      <c r="K41" s="10"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
@@ -6902,7 +6885,7 @@
         <v>198</v>
       </c>
       <c r="J42" s="1"/>
-      <c r="K42" s="4"/>
+      <c r="K42" s="10"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
@@ -6941,7 +6924,7 @@
         <v>209</v>
       </c>
       <c r="J43" s="1"/>
-      <c r="K43" s="4"/>
+      <c r="K43" s="10"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
@@ -6980,7 +6963,7 @@
         <v>209</v>
       </c>
       <c r="J44" s="1"/>
-      <c r="K44" s="4"/>
+      <c r="K44" s="10"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
@@ -7019,7 +7002,7 @@
         <v>219</v>
       </c>
       <c r="J45" s="1"/>
-      <c r="K45" s="4"/>
+      <c r="K45" s="10"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
@@ -7058,7 +7041,7 @@
         <v>219</v>
       </c>
       <c r="J46" s="1"/>
-      <c r="K46" s="4"/>
+      <c r="K46" s="10"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
@@ -7097,7 +7080,7 @@
         <v>219</v>
       </c>
       <c r="J47" s="1"/>
-      <c r="K47" s="4"/>
+      <c r="K47" s="10"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
@@ -7136,7 +7119,7 @@
         <v>219</v>
       </c>
       <c r="J48" s="1"/>
-      <c r="K48" s="4"/>
+      <c r="K48" s="10"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
@@ -7175,7 +7158,7 @@
         <v>236</v>
       </c>
       <c r="J49" s="1"/>
-      <c r="K49" s="4"/>
+      <c r="K49" s="10"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
@@ -7214,7 +7197,7 @@
         <v>236</v>
       </c>
       <c r="J50" s="1"/>
-      <c r="K50" s="4"/>
+      <c r="K50" s="10"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
@@ -7253,7 +7236,7 @@
         <v>246</v>
       </c>
       <c r="J51" s="1"/>
-      <c r="K51" s="4"/>
+      <c r="K51" s="10"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
@@ -7292,7 +7275,7 @@
         <v>246</v>
       </c>
       <c r="J52" s="1"/>
-      <c r="K52" s="4"/>
+      <c r="K52" s="10"/>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
@@ -7331,7 +7314,7 @@
         <v>257</v>
       </c>
       <c r="J53" s="1"/>
-      <c r="K53" s="4"/>
+      <c r="K53" s="10"/>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
@@ -7370,7 +7353,7 @@
         <v>257</v>
       </c>
       <c r="J54" s="1"/>
-      <c r="K54" s="4"/>
+      <c r="K54" s="10"/>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
@@ -7409,7 +7392,7 @@
         <v>257</v>
       </c>
       <c r="J55" s="1"/>
-      <c r="K55" s="4"/>
+      <c r="K55" s="10"/>
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
@@ -7448,7 +7431,7 @@
         <v>271</v>
       </c>
       <c r="J56" s="1"/>
-      <c r="K56" s="4"/>
+      <c r="K56" s="10"/>
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
@@ -7487,7 +7470,7 @@
         <v>271</v>
       </c>
       <c r="J57" s="1"/>
-      <c r="K57" s="4"/>
+      <c r="K57" s="10"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
@@ -7526,7 +7509,7 @@
         <v>282</v>
       </c>
       <c r="J58" s="1"/>
-      <c r="K58" s="4"/>
+      <c r="K58" s="10"/>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
@@ -7565,7 +7548,7 @@
         <v>282</v>
       </c>
       <c r="J59" s="1"/>
-      <c r="K59" s="4"/>
+      <c r="K59" s="10"/>
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
@@ -7604,7 +7587,7 @@
         <v>282</v>
       </c>
       <c r="J60" s="1"/>
-      <c r="K60" s="4"/>
+      <c r="K60" s="10"/>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
@@ -7643,7 +7626,7 @@
         <v>282</v>
       </c>
       <c r="J61" s="1"/>
-      <c r="K61" s="4"/>
+      <c r="K61" s="10"/>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
@@ -7682,7 +7665,7 @@
         <v>282</v>
       </c>
       <c r="J62" s="1"/>
-      <c r="K62" s="4"/>
+      <c r="K62" s="10"/>
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
@@ -7721,7 +7704,7 @@
         <v>282</v>
       </c>
       <c r="J63" s="1"/>
-      <c r="K63" s="4"/>
+      <c r="K63" s="10"/>
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
@@ -7760,7 +7743,7 @@
         <v>305</v>
       </c>
       <c r="J64" s="1"/>
-      <c r="K64" s="4"/>
+      <c r="K64" s="10"/>
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
@@ -7799,7 +7782,7 @@
         <v>305</v>
       </c>
       <c r="J65" s="1"/>
-      <c r="K65" s="4"/>
+      <c r="K65" s="10"/>
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
@@ -7838,7 +7821,7 @@
         <v>305</v>
       </c>
       <c r="J66" s="1"/>
-      <c r="K66" s="4"/>
+      <c r="K66" s="10"/>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
@@ -7877,7 +7860,7 @@
         <v>319</v>
       </c>
       <c r="J67" s="1"/>
-      <c r="K67" s="4"/>
+      <c r="K67" s="10"/>
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
@@ -7916,7 +7899,7 @@
         <v>319</v>
       </c>
       <c r="J68" s="1"/>
-      <c r="K68" s="4"/>
+      <c r="K68" s="10"/>
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
@@ -7955,7 +7938,7 @@
         <v>319</v>
       </c>
       <c r="J69" s="1"/>
-      <c r="K69" s="4"/>
+      <c r="K69" s="10"/>
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
@@ -7994,7 +7977,7 @@
         <v>319</v>
       </c>
       <c r="J70" s="1"/>
-      <c r="K70" s="4"/>
+      <c r="K70" s="10"/>
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
@@ -8033,7 +8016,7 @@
         <v>319</v>
       </c>
       <c r="J71" s="1"/>
-      <c r="K71" s="4"/>
+      <c r="K71" s="10"/>
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
@@ -8072,7 +8055,7 @@
         <v>340</v>
       </c>
       <c r="J72" s="1"/>
-      <c r="K72" s="4"/>
+      <c r="K72" s="10"/>
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
@@ -8111,7 +8094,7 @@
         <v>340</v>
       </c>
       <c r="J73" s="1"/>
-      <c r="K73" s="4"/>
+      <c r="K73" s="10"/>
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
@@ -8150,7 +8133,7 @@
         <v>340</v>
       </c>
       <c r="J74" s="1"/>
-      <c r="K74" s="4"/>
+      <c r="K74" s="10"/>
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
@@ -8189,7 +8172,7 @@
         <v>340</v>
       </c>
       <c r="J75" s="1"/>
-      <c r="K75" s="4"/>
+      <c r="K75" s="10"/>
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
@@ -8228,7 +8211,7 @@
         <v>357</v>
       </c>
       <c r="J76" s="1"/>
-      <c r="K76" s="4"/>
+      <c r="K76" s="10"/>
       <c r="L76" s="4"/>
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
@@ -8267,7 +8250,7 @@
         <v>357</v>
       </c>
       <c r="J77" s="1"/>
-      <c r="K77" s="4"/>
+      <c r="K77" s="10"/>
       <c r="L77" s="4"/>
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
@@ -8306,7 +8289,7 @@
         <v>357</v>
       </c>
       <c r="J78" s="1"/>
-      <c r="K78" s="4"/>
+      <c r="K78" s="10"/>
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
@@ -8345,7 +8328,7 @@
         <v>371</v>
       </c>
       <c r="J79" s="1"/>
-      <c r="K79" s="4"/>
+      <c r="K79" s="10"/>
       <c r="L79" s="4"/>
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
@@ -8384,7 +8367,7 @@
         <v>371</v>
       </c>
       <c r="J80" s="1"/>
-      <c r="K80" s="4"/>
+      <c r="K80" s="10"/>
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
@@ -8423,7 +8406,7 @@
         <v>383</v>
       </c>
       <c r="J81" s="1"/>
-      <c r="K81" s="4"/>
+      <c r="K81" s="10"/>
       <c r="L81" s="4"/>
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
@@ -8462,7 +8445,7 @@
         <v>383</v>
       </c>
       <c r="J82" s="1"/>
-      <c r="K82" s="4"/>
+      <c r="K82" s="10"/>
       <c r="L82" s="4"/>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
@@ -8501,7 +8484,7 @@
         <v>383</v>
       </c>
       <c r="J83" s="1"/>
-      <c r="K83" s="4"/>
+      <c r="K83" s="10"/>
       <c r="L83" s="4"/>
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
@@ -8540,7 +8523,7 @@
         <v>383</v>
       </c>
       <c r="J84" s="1"/>
-      <c r="K84" s="4"/>
+      <c r="K84" s="10"/>
       <c r="L84" s="4"/>
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
@@ -8579,7 +8562,7 @@
         <v>383</v>
       </c>
       <c r="J85" s="1"/>
-      <c r="K85" s="4"/>
+      <c r="K85" s="10"/>
       <c r="L85" s="4"/>
       <c r="M85" s="4"/>
       <c r="N85" s="4"/>
@@ -8618,7 +8601,7 @@
         <v>383</v>
       </c>
       <c r="J86" s="1"/>
-      <c r="K86" s="4"/>
+      <c r="K86" s="10"/>
       <c r="L86" s="4"/>
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
@@ -8657,7 +8640,7 @@
         <v>383</v>
       </c>
       <c r="J87" s="1"/>
-      <c r="K87" s="4"/>
+      <c r="K87" s="10"/>
       <c r="L87" s="4"/>
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
@@ -8696,7 +8679,7 @@
         <v>383</v>
       </c>
       <c r="J88" s="1"/>
-      <c r="K88" s="4"/>
+      <c r="K88" s="10"/>
       <c r="L88" s="4"/>
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
@@ -8735,7 +8718,7 @@
         <v>414</v>
       </c>
       <c r="J89" s="1"/>
-      <c r="K89" s="4"/>
+      <c r="K89" s="10"/>
       <c r="L89" s="4"/>
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
@@ -8774,7 +8757,7 @@
         <v>414</v>
       </c>
       <c r="J90" s="1"/>
-      <c r="K90" s="4"/>
+      <c r="K90" s="10"/>
       <c r="L90" s="4"/>
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
@@ -8813,7 +8796,7 @@
         <v>414</v>
       </c>
       <c r="J91" s="1"/>
-      <c r="K91" s="4"/>
+      <c r="K91" s="10"/>
       <c r="L91" s="4"/>
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
@@ -8852,7 +8835,7 @@
         <v>428</v>
       </c>
       <c r="J92" s="1"/>
-      <c r="K92" s="4"/>
+      <c r="K92" s="10"/>
       <c r="L92" s="4"/>
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
@@ -8891,7 +8874,7 @@
         <v>428</v>
       </c>
       <c r="J93" s="1"/>
-      <c r="K93" s="4"/>
+      <c r="K93" s="10"/>
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
@@ -8930,7 +8913,7 @@
         <v>428</v>
       </c>
       <c r="J94" s="1"/>
-      <c r="K94" s="4"/>
+      <c r="K94" s="10"/>
       <c r="L94" s="4"/>
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
@@ -8969,7 +8952,7 @@
         <v>442</v>
       </c>
       <c r="J95" s="1"/>
-      <c r="K95" s="4"/>
+      <c r="K95" s="10"/>
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
       <c r="N95" s="4"/>
@@ -9008,7 +8991,7 @@
         <v>442</v>
       </c>
       <c r="J96" s="1"/>
-      <c r="K96" s="4"/>
+      <c r="K96" s="10"/>
       <c r="L96" s="4"/>
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
@@ -9047,7 +9030,7 @@
         <v>453</v>
       </c>
       <c r="J97" s="1"/>
-      <c r="K97" s="4"/>
+      <c r="K97" s="10"/>
       <c r="L97" s="4"/>
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>
@@ -9086,7 +9069,7 @@
         <v>453</v>
       </c>
       <c r="J98" s="1"/>
-      <c r="K98" s="4"/>
+      <c r="K98" s="10"/>
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
@@ -9125,7 +9108,7 @@
         <v>464</v>
       </c>
       <c r="J99" s="1"/>
-      <c r="K99" s="4"/>
+      <c r="K99" s="10"/>
       <c r="L99" s="4"/>
       <c r="M99" s="4"/>
       <c r="N99" s="4"/>
@@ -9164,7 +9147,7 @@
         <v>464</v>
       </c>
       <c r="J100" s="1"/>
-      <c r="K100" s="4"/>
+      <c r="K100" s="10"/>
       <c r="L100" s="4"/>
       <c r="M100" s="4"/>
       <c r="N100" s="4"/>
@@ -9203,7 +9186,7 @@
         <v>464</v>
       </c>
       <c r="J101" s="1"/>
-      <c r="K101" s="4"/>
+      <c r="K101" s="10"/>
       <c r="L101" s="4"/>
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
@@ -9242,7 +9225,7 @@
         <v>477</v>
       </c>
       <c r="J102" s="1"/>
-      <c r="K102" s="4"/>
+      <c r="K102" s="10"/>
       <c r="L102" s="4"/>
       <c r="M102" s="4"/>
       <c r="N102" s="4"/>
@@ -9281,7 +9264,7 @@
         <v>477</v>
       </c>
       <c r="J103" s="1"/>
-      <c r="K103" s="4"/>
+      <c r="K103" s="10"/>
       <c r="L103" s="4"/>
       <c r="M103" s="4"/>
       <c r="N103" s="4"/>
@@ -9320,7 +9303,7 @@
         <v>477</v>
       </c>
       <c r="J104" s="1"/>
-      <c r="K104" s="4"/>
+      <c r="K104" s="10"/>
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
       <c r="N104" s="4"/>
@@ -9359,7 +9342,7 @@
         <v>477</v>
       </c>
       <c r="J105" s="1"/>
-      <c r="K105" s="4"/>
+      <c r="K105" s="10"/>
       <c r="L105" s="4"/>
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
@@ -9398,7 +9381,7 @@
         <v>477</v>
       </c>
       <c r="J106" s="1"/>
-      <c r="K106" s="4"/>
+      <c r="K106" s="10"/>
       <c r="L106" s="4"/>
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
@@ -9437,7 +9420,7 @@
         <v>477</v>
       </c>
       <c r="J107" s="1"/>
-      <c r="K107" s="4"/>
+      <c r="K107" s="10"/>
       <c r="L107" s="4"/>
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>
@@ -9476,7 +9459,7 @@
         <v>499</v>
       </c>
       <c r="J108" s="1"/>
-      <c r="K108" s="4"/>
+      <c r="K108" s="10"/>
       <c r="L108" s="4"/>
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
@@ -9515,7 +9498,7 @@
         <v>499</v>
       </c>
       <c r="J109" s="1"/>
-      <c r="K109" s="4"/>
+      <c r="K109" s="10"/>
       <c r="L109" s="4"/>
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
@@ -9554,7 +9537,7 @@
         <v>511</v>
       </c>
       <c r="J110" s="1"/>
-      <c r="K110" s="4"/>
+      <c r="K110" s="10"/>
       <c r="L110" s="4"/>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
@@ -9593,7 +9576,7 @@
         <v>511</v>
       </c>
       <c r="J111" s="1"/>
-      <c r="K111" s="4"/>
+      <c r="K111" s="10"/>
       <c r="L111" s="4"/>
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>
@@ -9632,7 +9615,7 @@
         <v>511</v>
       </c>
       <c r="J112" s="1"/>
-      <c r="K112" s="4"/>
+      <c r="K112" s="10"/>
       <c r="L112" s="4"/>
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
@@ -9671,7 +9654,7 @@
         <v>511</v>
       </c>
       <c r="J113" s="1"/>
-      <c r="K113" s="4"/>
+      <c r="K113" s="10"/>
       <c r="L113" s="4"/>
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>
@@ -9710,7 +9693,7 @@
         <v>511</v>
       </c>
       <c r="J114" s="1"/>
-      <c r="K114" s="4"/>
+      <c r="K114" s="10"/>
       <c r="L114" s="4"/>
       <c r="M114" s="4"/>
       <c r="N114" s="4"/>
@@ -9749,7 +9732,7 @@
         <v>511</v>
       </c>
       <c r="J115" s="1"/>
-      <c r="K115" s="4"/>
+      <c r="K115" s="10"/>
       <c r="L115" s="4"/>
       <c r="M115" s="4"/>
       <c r="N115" s="4"/>
@@ -9788,7 +9771,7 @@
         <v>534</v>
       </c>
       <c r="J116" s="1"/>
-      <c r="K116" s="4"/>
+      <c r="K116" s="10"/>
       <c r="L116" s="4"/>
       <c r="M116" s="4"/>
       <c r="N116" s="4"/>
@@ -9827,7 +9810,7 @@
         <v>534</v>
       </c>
       <c r="J117" s="1"/>
-      <c r="K117" s="4"/>
+      <c r="K117" s="10"/>
       <c r="L117" s="4"/>
       <c r="M117" s="4"/>
       <c r="N117" s="4"/>
@@ -9866,7 +9849,7 @@
         <v>545</v>
       </c>
       <c r="J118" s="1"/>
-      <c r="K118" s="4"/>
+      <c r="K118" s="10"/>
       <c r="L118" s="4"/>
       <c r="M118" s="4"/>
       <c r="N118" s="4"/>
@@ -9905,7 +9888,7 @@
         <v>545</v>
       </c>
       <c r="J119" s="1"/>
-      <c r="K119" s="4"/>
+      <c r="K119" s="10"/>
       <c r="L119" s="4"/>
       <c r="M119" s="4"/>
       <c r="N119" s="4"/>
@@ -9944,7 +9927,7 @@
         <v>545</v>
       </c>
       <c r="J120" s="1"/>
-      <c r="K120" s="4"/>
+      <c r="K120" s="10"/>
       <c r="L120" s="4"/>
       <c r="M120" s="4"/>
       <c r="N120" s="4"/>
@@ -9983,7 +9966,7 @@
         <v>545</v>
       </c>
       <c r="J121" s="1"/>
-      <c r="K121" s="4"/>
+      <c r="K121" s="10"/>
       <c r="L121" s="4"/>
       <c r="M121" s="4"/>
       <c r="N121" s="4"/>
@@ -10022,7 +10005,7 @@
         <v>561</v>
       </c>
       <c r="J122" s="1"/>
-      <c r="K122" s="4"/>
+      <c r="K122" s="10"/>
       <c r="L122" s="4"/>
       <c r="M122" s="4"/>
       <c r="N122" s="4"/>
@@ -10061,7 +10044,7 @@
         <v>569</v>
       </c>
       <c r="J123" s="1"/>
-      <c r="K123" s="4"/>
+      <c r="K123" s="10"/>
       <c r="L123" s="4"/>
       <c r="M123" s="4"/>
       <c r="N123" s="4"/>
@@ -10100,7 +10083,7 @@
         <v>569</v>
       </c>
       <c r="J124" s="1"/>
-      <c r="K124" s="4"/>
+      <c r="K124" s="10"/>
       <c r="L124" s="4"/>
       <c r="M124" s="4"/>
       <c r="N124" s="4"/>
@@ -10139,7 +10122,7 @@
         <v>569</v>
       </c>
       <c r="J125" s="1"/>
-      <c r="K125" s="4"/>
+      <c r="K125" s="10"/>
       <c r="L125" s="4"/>
       <c r="M125" s="4"/>
       <c r="N125" s="4"/>
@@ -10178,7 +10161,7 @@
         <v>569</v>
       </c>
       <c r="J126" s="1"/>
-      <c r="K126" s="4"/>
+      <c r="K126" s="10"/>
       <c r="L126" s="4"/>
       <c r="M126" s="4"/>
       <c r="N126" s="4"/>
@@ -10217,7 +10200,7 @@
         <v>569</v>
       </c>
       <c r="J127" s="1"/>
-      <c r="K127" s="4"/>
+      <c r="K127" s="10"/>
       <c r="L127" s="4"/>
       <c r="M127" s="4"/>
       <c r="N127" s="4"/>
@@ -10256,7 +10239,7 @@
         <v>569</v>
       </c>
       <c r="J128" s="1"/>
-      <c r="K128" s="4"/>
+      <c r="K128" s="10"/>
       <c r="L128" s="4"/>
       <c r="M128" s="4"/>
       <c r="N128" s="4"/>
@@ -10295,7 +10278,7 @@
         <v>569</v>
       </c>
       <c r="J129" s="1"/>
-      <c r="K129" s="4"/>
+      <c r="K129" s="10"/>
       <c r="L129" s="4"/>
       <c r="M129" s="4"/>
       <c r="N129" s="4"/>
@@ -10334,7 +10317,7 @@
         <v>569</v>
       </c>
       <c r="J130" s="1"/>
-      <c r="K130" s="4"/>
+      <c r="K130" s="10"/>
       <c r="L130" s="4"/>
       <c r="M130" s="4"/>
       <c r="N130" s="4"/>
@@ -10373,7 +10356,7 @@
         <v>597</v>
       </c>
       <c r="J131" s="1"/>
-      <c r="K131" s="4"/>
+      <c r="K131" s="10"/>
       <c r="L131" s="4"/>
       <c r="M131" s="4"/>
       <c r="N131" s="4"/>
@@ -10412,7 +10395,7 @@
         <v>597</v>
       </c>
       <c r="J132" s="1"/>
-      <c r="K132" s="4"/>
+      <c r="K132" s="10"/>
       <c r="L132" s="4"/>
       <c r="M132" s="4"/>
       <c r="N132" s="4"/>
@@ -10451,7 +10434,7 @@
         <v>608</v>
       </c>
       <c r="J133" s="1"/>
-      <c r="K133" s="4"/>
+      <c r="K133" s="10"/>
       <c r="L133" s="4"/>
       <c r="M133" s="4"/>
       <c r="N133" s="4"/>
@@ -10490,7 +10473,7 @@
         <v>608</v>
       </c>
       <c r="J134" s="1"/>
-      <c r="K134" s="4"/>
+      <c r="K134" s="10"/>
       <c r="L134" s="4"/>
       <c r="M134" s="4"/>
       <c r="N134" s="4"/>
@@ -10529,7 +10512,7 @@
         <v>608</v>
       </c>
       <c r="J135" s="1"/>
-      <c r="K135" s="4"/>
+      <c r="K135" s="10"/>
       <c r="L135" s="4"/>
       <c r="M135" s="4"/>
       <c r="N135" s="4"/>
@@ -10568,7 +10551,7 @@
         <v>608</v>
       </c>
       <c r="J136" s="1"/>
-      <c r="K136" s="4"/>
+      <c r="K136" s="10"/>
       <c r="L136" s="4"/>
       <c r="M136" s="4"/>
       <c r="N136" s="4"/>
@@ -10607,7 +10590,7 @@
         <v>608</v>
       </c>
       <c r="J137" s="1"/>
-      <c r="K137" s="4"/>
+      <c r="K137" s="10"/>
       <c r="L137" s="4"/>
       <c r="M137" s="4"/>
       <c r="N137" s="4"/>
@@ -10646,7 +10629,7 @@
         <v>608</v>
       </c>
       <c r="J138" s="1"/>
-      <c r="K138" s="4"/>
+      <c r="K138" s="10"/>
       <c r="L138" s="4"/>
       <c r="M138" s="4"/>
       <c r="N138" s="4"/>
@@ -10685,7 +10668,7 @@
         <v>608</v>
       </c>
       <c r="J139" s="1"/>
-      <c r="K139" s="4"/>
+      <c r="K139" s="10"/>
       <c r="L139" s="4"/>
       <c r="M139" s="4"/>
       <c r="N139" s="4"/>
@@ -10724,7 +10707,7 @@
         <v>608</v>
       </c>
       <c r="J140" s="1"/>
-      <c r="K140" s="4"/>
+      <c r="K140" s="10"/>
       <c r="L140" s="4"/>
       <c r="M140" s="4"/>
       <c r="N140" s="4"/>
@@ -10763,7 +10746,7 @@
         <v>608</v>
       </c>
       <c r="J141" s="1"/>
-      <c r="K141" s="4"/>
+      <c r="K141" s="10"/>
       <c r="L141" s="4"/>
       <c r="M141" s="4"/>
       <c r="N141" s="4"/>
@@ -10802,7 +10785,7 @@
         <v>608</v>
       </c>
       <c r="J142" s="1"/>
-      <c r="K142" s="4"/>
+      <c r="K142" s="10"/>
       <c r="L142" s="4"/>
       <c r="M142" s="4"/>
       <c r="N142" s="4"/>
@@ -10841,7 +10824,7 @@
         <v>608</v>
       </c>
       <c r="J143" s="1"/>
-      <c r="K143" s="4"/>
+      <c r="K143" s="10"/>
       <c r="L143" s="4"/>
       <c r="M143" s="4"/>
       <c r="N143" s="4"/>
@@ -10880,7 +10863,7 @@
         <v>608</v>
       </c>
       <c r="J144" s="1"/>
-      <c r="K144" s="4"/>
+      <c r="K144" s="10"/>
       <c r="L144" s="4"/>
       <c r="M144" s="4"/>
       <c r="N144" s="4"/>
@@ -10919,7 +10902,7 @@
         <v>608</v>
       </c>
       <c r="J145" s="1"/>
-      <c r="K145" s="4"/>
+      <c r="K145" s="10"/>
       <c r="L145" s="4"/>
       <c r="M145" s="4"/>
       <c r="N145" s="4"/>
@@ -10958,7 +10941,7 @@
         <v>608</v>
       </c>
       <c r="J146" s="1"/>
-      <c r="K146" s="4"/>
+      <c r="K146" s="10"/>
       <c r="L146" s="4"/>
       <c r="M146" s="4"/>
       <c r="N146" s="4"/>
@@ -10997,7 +10980,7 @@
         <v>608</v>
       </c>
       <c r="J147" s="1"/>
-      <c r="K147" s="4"/>
+      <c r="K147" s="10"/>
       <c r="L147" s="4"/>
       <c r="M147" s="4"/>
       <c r="N147" s="4"/>
@@ -11036,7 +11019,7 @@
         <v>658</v>
       </c>
       <c r="J148" s="1"/>
-      <c r="K148" s="4"/>
+      <c r="K148" s="10"/>
       <c r="L148" s="4"/>
       <c r="M148" s="4"/>
       <c r="N148" s="4"/>
@@ -11075,7 +11058,7 @@
         <v>658</v>
       </c>
       <c r="J149" s="1"/>
-      <c r="K149" s="4"/>
+      <c r="K149" s="10"/>
       <c r="L149" s="4"/>
       <c r="M149" s="4"/>
       <c r="N149" s="4"/>
@@ -11114,7 +11097,7 @@
         <v>658</v>
       </c>
       <c r="J150" s="1"/>
-      <c r="K150" s="4"/>
+      <c r="K150" s="10"/>
       <c r="L150" s="4"/>
       <c r="M150" s="4"/>
       <c r="N150" s="4"/>
@@ -11153,7 +11136,7 @@
         <v>672</v>
       </c>
       <c r="J151" s="1"/>
-      <c r="K151" s="4"/>
+      <c r="K151" s="10"/>
       <c r="L151" s="4"/>
       <c r="M151" s="4"/>
       <c r="N151" s="4"/>
@@ -11192,7 +11175,7 @@
         <v>672</v>
       </c>
       <c r="J152" s="1"/>
-      <c r="K152" s="4"/>
+      <c r="K152" s="10"/>
       <c r="L152" s="4"/>
       <c r="M152" s="4"/>
       <c r="N152" s="4"/>
@@ -11231,7 +11214,7 @@
         <v>672</v>
       </c>
       <c r="J153" s="1"/>
-      <c r="K153" s="4"/>
+      <c r="K153" s="10"/>
       <c r="L153" s="4"/>
       <c r="M153" s="4"/>
       <c r="N153" s="4"/>
@@ -11270,7 +11253,7 @@
         <v>687</v>
       </c>
       <c r="J154" s="1"/>
-      <c r="K154" s="4"/>
+      <c r="K154" s="10"/>
       <c r="L154" s="4"/>
       <c r="M154" s="4"/>
       <c r="N154" s="4"/>
@@ -11309,7 +11292,7 @@
         <v>687</v>
       </c>
       <c r="J155" s="1"/>
-      <c r="K155" s="4"/>
+      <c r="K155" s="10"/>
       <c r="L155" s="4"/>
       <c r="M155" s="4"/>
       <c r="N155" s="4"/>
@@ -11348,7 +11331,7 @@
         <v>687</v>
       </c>
       <c r="J156" s="1"/>
-      <c r="K156" s="4"/>
+      <c r="K156" s="10"/>
       <c r="L156" s="4"/>
       <c r="M156" s="4"/>
       <c r="N156" s="4"/>
@@ -11387,7 +11370,7 @@
         <v>701</v>
       </c>
       <c r="J157" s="1"/>
-      <c r="K157" s="4"/>
+      <c r="K157" s="10"/>
       <c r="L157" s="4"/>
       <c r="M157" s="4"/>
       <c r="N157" s="4"/>
@@ -11426,7 +11409,7 @@
         <v>701</v>
       </c>
       <c r="J158" s="1"/>
-      <c r="K158" s="4"/>
+      <c r="K158" s="10"/>
       <c r="L158" s="4"/>
       <c r="M158" s="4"/>
       <c r="N158" s="4"/>
@@ -11465,7 +11448,7 @@
         <v>701</v>
       </c>
       <c r="J159" s="1"/>
-      <c r="K159" s="4"/>
+      <c r="K159" s="10"/>
       <c r="L159" s="4"/>
       <c r="M159" s="4"/>
       <c r="N159" s="4"/>
@@ -11504,7 +11487,7 @@
         <v>714</v>
       </c>
       <c r="J160" s="1"/>
-      <c r="K160" s="4"/>
+      <c r="K160" s="10"/>
       <c r="L160" s="4"/>
       <c r="M160" s="4"/>
       <c r="N160" s="4"/>
@@ -11543,7 +11526,7 @@
         <v>714</v>
       </c>
       <c r="J161" s="1"/>
-      <c r="K161" s="4"/>
+      <c r="K161" s="10"/>
       <c r="L161" s="4"/>
       <c r="M161" s="4"/>
       <c r="N161" s="4"/>
@@ -11582,7 +11565,7 @@
         <v>714</v>
       </c>
       <c r="J162" s="1"/>
-      <c r="K162" s="4"/>
+      <c r="K162" s="10"/>
       <c r="L162" s="4"/>
       <c r="M162" s="4"/>
       <c r="N162" s="4"/>
@@ -11621,7 +11604,7 @@
         <v>714</v>
       </c>
       <c r="J163" s="1"/>
-      <c r="K163" s="4"/>
+      <c r="K163" s="10"/>
       <c r="L163" s="4"/>
       <c r="M163" s="4"/>
       <c r="N163" s="4"/>
@@ -11660,7 +11643,7 @@
         <v>729</v>
       </c>
       <c r="J164" s="1"/>
-      <c r="K164" s="4"/>
+      <c r="K164" s="10"/>
       <c r="L164" s="4"/>
       <c r="M164" s="4"/>
       <c r="N164" s="4"/>
@@ -11699,7 +11682,7 @@
         <v>737</v>
       </c>
       <c r="J165" s="1"/>
-      <c r="K165" s="4"/>
+      <c r="K165" s="10"/>
       <c r="L165" s="4"/>
       <c r="M165" s="4"/>
       <c r="N165" s="4"/>
@@ -11738,7 +11721,7 @@
         <v>737</v>
       </c>
       <c r="J166" s="1"/>
-      <c r="K166" s="4"/>
+      <c r="K166" s="10"/>
       <c r="L166" s="4"/>
       <c r="M166" s="4"/>
       <c r="N166" s="4"/>
@@ -11777,7 +11760,7 @@
         <v>737</v>
       </c>
       <c r="J167" s="1"/>
-      <c r="K167" s="4"/>
+      <c r="K167" s="10"/>
       <c r="L167" s="4"/>
       <c r="M167" s="4"/>
       <c r="N167" s="4"/>
@@ -11816,7 +11799,7 @@
         <v>737</v>
       </c>
       <c r="J168" s="1"/>
-      <c r="K168" s="4"/>
+      <c r="K168" s="10"/>
       <c r="L168" s="4"/>
       <c r="M168" s="4"/>
       <c r="N168" s="4"/>
@@ -11855,7 +11838,7 @@
         <v>756</v>
       </c>
       <c r="J169" s="1"/>
-      <c r="K169" s="4"/>
+      <c r="K169" s="10"/>
       <c r="L169" s="4"/>
       <c r="M169" s="4"/>
       <c r="N169" s="4"/>
@@ -11894,7 +11877,7 @@
         <v>756</v>
       </c>
       <c r="J170" s="1"/>
-      <c r="K170" s="4"/>
+      <c r="K170" s="10"/>
       <c r="L170" s="4"/>
       <c r="M170" s="4"/>
       <c r="N170" s="4"/>
@@ -11933,7 +11916,7 @@
         <v>756</v>
       </c>
       <c r="J171" s="1"/>
-      <c r="K171" s="4"/>
+      <c r="K171" s="10"/>
       <c r="L171" s="4"/>
       <c r="M171" s="4"/>
       <c r="N171" s="4"/>
@@ -11972,7 +11955,7 @@
         <v>756</v>
       </c>
       <c r="J172" s="1"/>
-      <c r="K172" s="4"/>
+      <c r="K172" s="10"/>
       <c r="L172" s="4"/>
       <c r="M172" s="4"/>
       <c r="N172" s="4"/>
@@ -12011,7 +11994,7 @@
         <v>756</v>
       </c>
       <c r="J173" s="1"/>
-      <c r="K173" s="4"/>
+      <c r="K173" s="10"/>
       <c r="L173" s="4"/>
       <c r="M173" s="4"/>
       <c r="N173" s="4"/>
@@ -12050,7 +12033,7 @@
         <v>756</v>
       </c>
       <c r="J174" s="1"/>
-      <c r="K174" s="4"/>
+      <c r="K174" s="10"/>
       <c r="L174" s="4"/>
       <c r="M174" s="4"/>
       <c r="N174" s="4"/>
@@ -12089,7 +12072,7 @@
         <v>756</v>
       </c>
       <c r="J175" s="1"/>
-      <c r="K175" s="4"/>
+      <c r="K175" s="10"/>
       <c r="L175" s="4"/>
       <c r="M175" s="4"/>
       <c r="N175" s="4"/>
@@ -12128,7 +12111,7 @@
         <v>756</v>
       </c>
       <c r="J176" s="1"/>
-      <c r="K176" s="4"/>
+      <c r="K176" s="10"/>
       <c r="L176" s="4"/>
       <c r="M176" s="4"/>
       <c r="N176" s="4"/>
@@ -12167,7 +12150,7 @@
         <v>756</v>
       </c>
       <c r="J177" s="1"/>
-      <c r="K177" s="4"/>
+      <c r="K177" s="10"/>
       <c r="L177" s="4"/>
       <c r="M177" s="4"/>
       <c r="N177" s="4"/>
@@ -12206,7 +12189,7 @@
         <v>791</v>
       </c>
       <c r="J178" s="1"/>
-      <c r="K178" s="4"/>
+      <c r="K178" s="10"/>
       <c r="L178" s="4"/>
       <c r="M178" s="4"/>
       <c r="N178" s="4"/>
@@ -12245,7 +12228,7 @@
         <v>800</v>
       </c>
       <c r="J179" s="1"/>
-      <c r="K179" s="4"/>
+      <c r="K179" s="10"/>
       <c r="L179" s="4"/>
       <c r="M179" s="4"/>
       <c r="N179" s="4"/>
@@ -12284,7 +12267,7 @@
         <v>800</v>
       </c>
       <c r="J180" s="1"/>
-      <c r="K180" s="4"/>
+      <c r="K180" s="10"/>
       <c r="L180" s="4"/>
       <c r="M180" s="4"/>
       <c r="N180" s="4"/>
@@ -12323,7 +12306,7 @@
         <v>800</v>
       </c>
       <c r="J181" s="1"/>
-      <c r="K181" s="4"/>
+      <c r="K181" s="10"/>
       <c r="L181" s="4"/>
       <c r="M181" s="4"/>
       <c r="N181" s="4"/>
@@ -12362,7 +12345,7 @@
         <v>800</v>
       </c>
       <c r="J182" s="1"/>
-      <c r="K182" s="4"/>
+      <c r="K182" s="10"/>
       <c r="L182" s="4"/>
       <c r="M182" s="4"/>
       <c r="N182" s="4"/>
@@ -12401,7 +12384,7 @@
         <v>800</v>
       </c>
       <c r="J183" s="1"/>
-      <c r="K183" s="4"/>
+      <c r="K183" s="10"/>
       <c r="L183" s="4"/>
       <c r="M183" s="4"/>
       <c r="N183" s="4"/>
@@ -12440,7 +12423,7 @@
         <v>800</v>
       </c>
       <c r="J184" s="1"/>
-      <c r="K184" s="4"/>
+      <c r="K184" s="10"/>
       <c r="L184" s="4"/>
       <c r="M184" s="4"/>
       <c r="N184" s="4"/>
@@ -12479,7 +12462,7 @@
         <v>800</v>
       </c>
       <c r="J185" s="1"/>
-      <c r="K185" s="4"/>
+      <c r="K185" s="10"/>
       <c r="L185" s="4"/>
       <c r="M185" s="4"/>
       <c r="N185" s="4"/>
@@ -12518,7 +12501,7 @@
         <v>826</v>
       </c>
       <c r="J186" s="1"/>
-      <c r="K186" s="4"/>
+      <c r="K186" s="10"/>
       <c r="L186" s="4"/>
       <c r="M186" s="4"/>
       <c r="N186" s="4"/>
@@ -12557,7 +12540,7 @@
         <v>826</v>
       </c>
       <c r="J187" s="1"/>
-      <c r="K187" s="4"/>
+      <c r="K187" s="10"/>
       <c r="L187" s="4"/>
       <c r="M187" s="4"/>
       <c r="N187" s="4"/>
@@ -12596,7 +12579,7 @@
         <v>826</v>
       </c>
       <c r="J188" s="1"/>
-      <c r="K188" s="4"/>
+      <c r="K188" s="10"/>
       <c r="L188" s="4"/>
       <c r="M188" s="4"/>
       <c r="N188" s="4"/>
@@ -12635,7 +12618,7 @@
         <v>826</v>
       </c>
       <c r="J189" s="1"/>
-      <c r="K189" s="4"/>
+      <c r="K189" s="10"/>
       <c r="L189" s="4"/>
       <c r="M189" s="4"/>
       <c r="N189" s="4"/>
@@ -12674,7 +12657,7 @@
         <v>826</v>
       </c>
       <c r="J190" s="1"/>
-      <c r="K190" s="4"/>
+      <c r="K190" s="10"/>
       <c r="L190" s="4"/>
       <c r="M190" s="4"/>
       <c r="N190" s="4"/>
@@ -12713,7 +12696,7 @@
         <v>826</v>
       </c>
       <c r="J191" s="1"/>
-      <c r="K191" s="4"/>
+      <c r="K191" s="10"/>
       <c r="L191" s="4"/>
       <c r="M191" s="4"/>
       <c r="N191" s="4"/>
@@ -12752,7 +12735,7 @@
         <v>826</v>
       </c>
       <c r="J192" s="1"/>
-      <c r="K192" s="4"/>
+      <c r="K192" s="10"/>
       <c r="L192" s="4"/>
       <c r="M192" s="4"/>
       <c r="N192" s="4"/>
@@ -12791,7 +12774,7 @@
         <v>855</v>
       </c>
       <c r="J193" s="1"/>
-      <c r="K193" s="1"/>
+      <c r="K193" s="10"/>
       <c r="L193" s="1"/>
       <c r="M193" s="1"/>
       <c r="N193" s="4"/>
@@ -12830,7 +12813,7 @@
         <v>863</v>
       </c>
       <c r="J194" s="1"/>
-      <c r="K194" s="1"/>
+      <c r="K194" s="10"/>
       <c r="L194" s="1"/>
       <c r="M194" s="1"/>
       <c r="N194" s="4"/>
@@ -12869,7 +12852,7 @@
         <v>863</v>
       </c>
       <c r="J195" s="1"/>
-      <c r="K195" s="1"/>
+      <c r="K195" s="10"/>
       <c r="L195" s="1"/>
       <c r="M195" s="1"/>
       <c r="N195" s="4"/>
@@ -12908,7 +12891,7 @@
         <v>863</v>
       </c>
       <c r="J196" s="1"/>
-      <c r="K196" s="1"/>
+      <c r="K196" s="10"/>
       <c r="L196" s="1"/>
       <c r="M196" s="1"/>
       <c r="N196" s="4"/>
@@ -12947,7 +12930,7 @@
         <v>863</v>
       </c>
       <c r="J197" s="1"/>
-      <c r="K197" s="1"/>
+      <c r="K197" s="10"/>
       <c r="L197" s="1"/>
       <c r="M197" s="1"/>
       <c r="N197" s="4"/>
@@ -12986,7 +12969,7 @@
         <v>855</v>
       </c>
       <c r="J198" s="1"/>
-      <c r="K198" s="1"/>
+      <c r="K198" s="10"/>
       <c r="L198" s="1"/>
       <c r="M198" s="1"/>
       <c r="N198" s="4"/>
@@ -13025,7 +13008,7 @@
         <v>882</v>
       </c>
       <c r="J199" s="1"/>
-      <c r="K199" s="1"/>
+      <c r="K199" s="10"/>
       <c r="L199" s="1"/>
       <c r="M199" s="1"/>
       <c r="N199" s="4"/>
@@ -13064,7 +13047,7 @@
         <v>890</v>
       </c>
       <c r="J200" s="1"/>
-      <c r="K200" s="4"/>
+      <c r="K200" s="10"/>
       <c r="L200" s="4"/>
       <c r="M200" s="4"/>
       <c r="N200" s="4"/>
@@ -13103,7 +13086,7 @@
         <v>890</v>
       </c>
       <c r="J201" s="1"/>
-      <c r="K201" s="4"/>
+      <c r="K201" s="10"/>
       <c r="L201" s="4"/>
       <c r="M201" s="4"/>
       <c r="N201" s="4"/>
@@ -13142,7 +13125,7 @@
         <v>899</v>
       </c>
       <c r="J202" s="1"/>
-      <c r="K202" s="4"/>
+      <c r="K202" s="10"/>
       <c r="L202" s="4"/>
       <c r="M202" s="4"/>
       <c r="N202" s="4"/>
@@ -13181,7 +13164,7 @@
         <v>908</v>
       </c>
       <c r="J203" s="1"/>
-      <c r="K203" s="4"/>
+      <c r="K203" s="10"/>
       <c r="L203" s="4"/>
       <c r="M203" s="4"/>
       <c r="N203" s="4"/>
@@ -13220,7 +13203,7 @@
         <v>908</v>
       </c>
       <c r="J204" s="1"/>
-      <c r="K204" s="4"/>
+      <c r="K204" s="10"/>
       <c r="L204" s="4"/>
       <c r="M204" s="4"/>
       <c r="N204" s="4"/>
@@ -13259,7 +13242,7 @@
         <v>908</v>
       </c>
       <c r="J205" s="1"/>
-      <c r="K205" s="4"/>
+      <c r="K205" s="10"/>
       <c r="L205" s="4"/>
       <c r="M205" s="4"/>
       <c r="N205" s="4"/>
@@ -13298,7 +13281,7 @@
         <v>908</v>
       </c>
       <c r="J206" s="1"/>
-      <c r="K206" s="4"/>
+      <c r="K206" s="10"/>
       <c r="L206" s="4"/>
       <c r="M206" s="4"/>
       <c r="N206" s="4"/>
@@ -13337,7 +13320,7 @@
         <v>924</v>
       </c>
       <c r="J207" s="1"/>
-      <c r="K207" s="4"/>
+      <c r="K207" s="10"/>
       <c r="L207" s="4"/>
       <c r="M207" s="4"/>
       <c r="N207" s="4"/>
@@ -13376,7 +13359,7 @@
         <v>932</v>
       </c>
       <c r="J208" s="1"/>
-      <c r="K208" s="4"/>
+      <c r="K208" s="10"/>
       <c r="L208" s="4"/>
       <c r="M208" s="4"/>
       <c r="N208" s="4"/>
@@ -13415,7 +13398,7 @@
         <v>932</v>
       </c>
       <c r="J209" s="1"/>
-      <c r="K209" s="4"/>
+      <c r="K209" s="10"/>
       <c r="L209" s="4"/>
       <c r="M209" s="4"/>
       <c r="N209" s="4"/>
@@ -13454,7 +13437,7 @@
         <v>943</v>
       </c>
       <c r="J210" s="1"/>
-      <c r="K210" s="4"/>
+      <c r="K210" s="10"/>
       <c r="L210" s="4"/>
       <c r="M210" s="4"/>
       <c r="N210" s="4"/>
@@ -13493,7 +13476,7 @@
         <v>943</v>
       </c>
       <c r="J211" s="1"/>
-      <c r="K211" s="4"/>
+      <c r="K211" s="10"/>
       <c r="L211" s="4"/>
       <c r="M211" s="4"/>
       <c r="N211" s="4"/>
@@ -13532,7 +13515,7 @@
         <v>954</v>
       </c>
       <c r="J212" s="1"/>
-      <c r="K212" s="4"/>
+      <c r="K212" s="10"/>
       <c r="L212" s="4"/>
       <c r="M212" s="4"/>
       <c r="N212" s="4"/>
@@ -13571,7 +13554,7 @@
         <v>954</v>
       </c>
       <c r="J213" s="1"/>
-      <c r="K213" s="4"/>
+      <c r="K213" s="10"/>
       <c r="L213" s="4"/>
       <c r="M213" s="4"/>
       <c r="N213" s="4"/>
@@ -13610,7 +13593,7 @@
         <v>964</v>
       </c>
       <c r="J214" s="1"/>
-      <c r="K214" s="4"/>
+      <c r="K214" s="10"/>
       <c r="L214" s="4"/>
       <c r="M214" s="4"/>
       <c r="N214" s="4"/>
@@ -13649,7 +13632,7 @@
         <v>971</v>
       </c>
       <c r="J215" s="1"/>
-      <c r="K215" s="4"/>
+      <c r="K215" s="10"/>
       <c r="L215" s="4"/>
       <c r="M215" s="4"/>
       <c r="N215" s="4"/>
@@ -13688,7 +13671,7 @@
         <v>976</v>
       </c>
       <c r="J216" s="1"/>
-      <c r="K216" s="4"/>
+      <c r="K216" s="10"/>
       <c r="L216" s="4"/>
       <c r="M216" s="4"/>
       <c r="N216" s="4"/>
@@ -13727,7 +13710,7 @@
         <v>983</v>
       </c>
       <c r="J217" s="1"/>
-      <c r="K217" s="4"/>
+      <c r="K217" s="10"/>
       <c r="L217" s="4"/>
       <c r="M217" s="4"/>
       <c r="N217" s="4"/>
@@ -13766,7 +13749,7 @@
         <v>991</v>
       </c>
       <c r="J218" s="1"/>
-      <c r="K218" s="4"/>
+      <c r="K218" s="10"/>
       <c r="L218" s="4"/>
       <c r="M218" s="4"/>
       <c r="N218" s="4"/>
@@ -13805,7 +13788,7 @@
         <v>999</v>
       </c>
       <c r="J219" s="1"/>
-      <c r="K219" s="4"/>
+      <c r="K219" s="10"/>
       <c r="L219" s="4"/>
       <c r="M219" s="4"/>
       <c r="N219" s="4"/>
@@ -13844,7 +13827,7 @@
         <v>999</v>
       </c>
       <c r="J220" s="1"/>
-      <c r="K220" s="4"/>
+      <c r="K220" s="10"/>
       <c r="L220" s="4"/>
       <c r="M220" s="4"/>
       <c r="N220" s="4"/>
@@ -13883,7 +13866,7 @@
         <v>999</v>
       </c>
       <c r="J221" s="1"/>
-      <c r="K221" s="4"/>
+      <c r="K221" s="10"/>
       <c r="L221" s="4"/>
       <c r="M221" s="4"/>
       <c r="N221" s="4"/>
@@ -13922,7 +13905,7 @@
         <v>1014</v>
       </c>
       <c r="J222" s="1"/>
-      <c r="K222" s="4"/>
+      <c r="K222" s="10"/>
       <c r="L222" s="4"/>
       <c r="M222" s="4"/>
       <c r="N222" s="4"/>
@@ -13961,7 +13944,7 @@
         <v>1014</v>
       </c>
       <c r="J223" s="1"/>
-      <c r="K223" s="4"/>
+      <c r="K223" s="10"/>
       <c r="L223" s="4"/>
       <c r="M223" s="4"/>
       <c r="N223" s="4"/>
@@ -14000,7 +13983,7 @@
         <v>1014</v>
       </c>
       <c r="J224" s="1"/>
-      <c r="K224" s="4"/>
+      <c r="K224" s="10"/>
       <c r="L224" s="4"/>
       <c r="M224" s="4"/>
       <c r="N224" s="4"/>
@@ -14039,7 +14022,7 @@
         <v>1014</v>
       </c>
       <c r="J225" s="1"/>
-      <c r="K225" s="4"/>
+      <c r="K225" s="10"/>
       <c r="L225" s="4"/>
       <c r="M225" s="4"/>
       <c r="N225" s="4"/>
@@ -14078,7 +14061,7 @@
         <v>1031</v>
       </c>
       <c r="J226" s="1"/>
-      <c r="K226" s="4"/>
+      <c r="K226" s="10"/>
       <c r="L226" s="4"/>
       <c r="M226" s="4"/>
       <c r="N226" s="4"/>
@@ -14117,7 +14100,7 @@
         <v>1031</v>
       </c>
       <c r="J227" s="1"/>
-      <c r="K227" s="4"/>
+      <c r="K227" s="10"/>
       <c r="L227" s="4"/>
       <c r="M227" s="4"/>
       <c r="N227" s="4"/>
@@ -14156,7 +14139,7 @@
         <v>1031</v>
       </c>
       <c r="J228" s="1"/>
-      <c r="K228" s="4"/>
+      <c r="K228" s="10"/>
       <c r="L228" s="4"/>
       <c r="M228" s="4"/>
       <c r="N228" s="4"/>
@@ -14195,7 +14178,7 @@
         <v>1031</v>
       </c>
       <c r="J229" s="1"/>
-      <c r="K229" s="4"/>
+      <c r="K229" s="10"/>
       <c r="L229" s="4"/>
       <c r="M229" s="4"/>
       <c r="N229" s="4"/>
@@ -14234,7 +14217,7 @@
         <v>1048</v>
       </c>
       <c r="J230" s="1"/>
-      <c r="K230" s="4"/>
+      <c r="K230" s="10"/>
       <c r="L230" s="4"/>
       <c r="M230" s="4"/>
       <c r="N230" s="4"/>
@@ -14273,7 +14256,7 @@
         <v>1048</v>
       </c>
       <c r="J231" s="1"/>
-      <c r="K231" s="4"/>
+      <c r="K231" s="10"/>
       <c r="L231" s="4"/>
       <c r="M231" s="4"/>
       <c r="N231" s="4"/>
@@ -14312,7 +14295,7 @@
         <v>1048</v>
       </c>
       <c r="J232" s="1"/>
-      <c r="K232" s="4"/>
+      <c r="K232" s="10"/>
       <c r="L232" s="4"/>
       <c r="M232" s="4"/>
       <c r="N232" s="4"/>
@@ -14351,7 +14334,7 @@
         <v>1048</v>
       </c>
       <c r="J233" s="1"/>
-      <c r="K233" s="4"/>
+      <c r="K233" s="10"/>
       <c r="L233" s="4"/>
       <c r="M233" s="4"/>
       <c r="N233" s="4"/>
@@ -14390,7 +14373,7 @@
         <v>1048</v>
       </c>
       <c r="J234" s="1"/>
-      <c r="K234" s="4"/>
+      <c r="K234" s="10"/>
       <c r="L234" s="4"/>
       <c r="M234" s="4"/>
       <c r="N234" s="4"/>
@@ -14429,7 +14412,7 @@
         <v>1048</v>
       </c>
       <c r="J235" s="1"/>
-      <c r="K235" s="4"/>
+      <c r="K235" s="10"/>
       <c r="L235" s="4"/>
       <c r="M235" s="4"/>
       <c r="N235" s="4"/>
@@ -14468,7 +14451,7 @@
         <v>1075</v>
       </c>
       <c r="J236" s="1"/>
-      <c r="K236" s="4"/>
+      <c r="K236" s="10"/>
       <c r="L236" s="4"/>
       <c r="M236" s="4"/>
       <c r="N236" s="4"/>
@@ -14507,7 +14490,7 @@
         <v>1075</v>
       </c>
       <c r="J237" s="1"/>
-      <c r="K237" s="4"/>
+      <c r="K237" s="10"/>
       <c r="L237" s="4"/>
       <c r="M237" s="4"/>
       <c r="N237" s="4"/>
@@ -14546,7 +14529,7 @@
         <v>1087</v>
       </c>
       <c r="J238" s="1"/>
-      <c r="K238" s="4"/>
+      <c r="K238" s="10"/>
       <c r="L238" s="4"/>
       <c r="M238" s="4"/>
       <c r="N238" s="4"/>
@@ -14585,7 +14568,7 @@
         <v>1087</v>
       </c>
       <c r="J239" s="1"/>
-      <c r="K239" s="4"/>
+      <c r="K239" s="10"/>
       <c r="L239" s="4"/>
       <c r="M239" s="4"/>
       <c r="N239" s="4"/>
@@ -14624,7 +14607,7 @@
         <v>1098</v>
       </c>
       <c r="J240" s="1"/>
-      <c r="K240" s="4"/>
+      <c r="K240" s="10"/>
       <c r="L240" s="4"/>
       <c r="M240" s="4"/>
       <c r="N240" s="4"/>
@@ -14663,7 +14646,7 @@
         <v>1098</v>
       </c>
       <c r="J241" s="1"/>
-      <c r="K241" s="4"/>
+      <c r="K241" s="10"/>
       <c r="L241" s="4"/>
       <c r="M241" s="4"/>
       <c r="N241" s="4"/>
@@ -14702,7 +14685,7 @@
         <v>1098</v>
       </c>
       <c r="J242" s="1"/>
-      <c r="K242" s="4"/>
+      <c r="K242" s="10"/>
       <c r="L242" s="4"/>
       <c r="M242" s="4"/>
       <c r="N242" s="4"/>
@@ -14741,7 +14724,7 @@
         <v>1098</v>
       </c>
       <c r="J243" s="1"/>
-      <c r="K243" s="4"/>
+      <c r="K243" s="10"/>
       <c r="L243" s="4"/>
       <c r="M243" s="4"/>
       <c r="N243" s="4"/>
@@ -14780,7 +14763,7 @@
         <v>1098</v>
       </c>
       <c r="J244" s="1"/>
-      <c r="K244" s="4"/>
+      <c r="K244" s="10"/>
       <c r="L244" s="4"/>
       <c r="M244" s="4"/>
       <c r="N244" s="4"/>
@@ -14819,7 +14802,7 @@
         <v>1098</v>
       </c>
       <c r="J245" s="1"/>
-      <c r="K245" s="4"/>
+      <c r="K245" s="10"/>
       <c r="L245" s="4"/>
       <c r="M245" s="4"/>
       <c r="N245" s="4"/>
@@ -14858,7 +14841,7 @@
         <v>1098</v>
       </c>
       <c r="J246" s="1"/>
-      <c r="K246" s="4"/>
+      <c r="K246" s="10"/>
       <c r="L246" s="4"/>
       <c r="M246" s="4"/>
       <c r="N246" s="4"/>
@@ -14897,7 +14880,7 @@
         <v>1128</v>
       </c>
       <c r="J247" s="1"/>
-      <c r="K247" s="4"/>
+      <c r="K247" s="10"/>
       <c r="L247" s="4"/>
       <c r="M247" s="4"/>
       <c r="N247" s="4"/>
@@ -14936,7 +14919,7 @@
         <v>1128</v>
       </c>
       <c r="J248" s="1"/>
-      <c r="K248" s="4"/>
+      <c r="K248" s="10"/>
       <c r="L248" s="4"/>
       <c r="M248" s="4"/>
       <c r="N248" s="4"/>
@@ -14975,7 +14958,7 @@
         <v>1139</v>
       </c>
       <c r="J249" s="1"/>
-      <c r="K249" s="4"/>
+      <c r="K249" s="10"/>
       <c r="L249" s="4"/>
       <c r="M249" s="4"/>
       <c r="N249" s="4"/>
@@ -15014,7 +14997,7 @@
         <v>1139</v>
       </c>
       <c r="J250" s="1"/>
-      <c r="K250" s="4"/>
+      <c r="K250" s="10"/>
       <c r="L250" s="4"/>
       <c r="M250" s="4"/>
       <c r="N250" s="4"/>
@@ -15053,7 +15036,7 @@
         <v>1139</v>
       </c>
       <c r="J251" s="1"/>
-      <c r="K251" s="4"/>
+      <c r="K251" s="10"/>
       <c r="L251" s="4"/>
       <c r="M251" s="4"/>
       <c r="N251" s="4"/>
@@ -15092,7 +15075,7 @@
         <v>1152</v>
       </c>
       <c r="J252" s="1"/>
-      <c r="K252" s="4"/>
+      <c r="K252" s="10"/>
       <c r="L252" s="4"/>
       <c r="M252" s="4"/>
       <c r="N252" s="4"/>
@@ -15131,7 +15114,7 @@
         <v>1152</v>
       </c>
       <c r="J253" s="1"/>
-      <c r="K253" s="4"/>
+      <c r="K253" s="10"/>
       <c r="L253" s="4"/>
       <c r="M253" s="4"/>
       <c r="N253" s="4"/>
@@ -15170,7 +15153,7 @@
         <v>1152</v>
       </c>
       <c r="J254" s="1"/>
-      <c r="K254" s="4"/>
+      <c r="K254" s="10"/>
       <c r="L254" s="4"/>
       <c r="M254" s="4"/>
       <c r="N254" s="4"/>
@@ -15209,7 +15192,7 @@
         <v>1152</v>
       </c>
       <c r="J255" s="1"/>
-      <c r="K255" s="4"/>
+      <c r="K255" s="10"/>
       <c r="L255" s="4"/>
       <c r="M255" s="4"/>
       <c r="N255" s="4"/>
@@ -15248,7 +15231,7 @@
         <v>1152</v>
       </c>
       <c r="J256" s="1"/>
-      <c r="K256" s="4"/>
+      <c r="K256" s="10"/>
       <c r="L256" s="4"/>
       <c r="M256" s="4"/>
       <c r="N256" s="4"/>
@@ -15287,7 +15270,7 @@
         <v>1152</v>
       </c>
       <c r="J257" s="1"/>
-      <c r="K257" s="4"/>
+      <c r="K257" s="10"/>
       <c r="L257" s="4"/>
       <c r="M257" s="4"/>
       <c r="N257" s="4"/>
@@ -15326,7 +15309,7 @@
         <v>1152</v>
       </c>
       <c r="J258" s="1"/>
-      <c r="K258" s="4"/>
+      <c r="K258" s="10"/>
       <c r="L258" s="4"/>
       <c r="M258" s="4"/>
       <c r="N258" s="4"/>
@@ -15365,7 +15348,7 @@
         <v>1152</v>
       </c>
       <c r="J259" s="1"/>
-      <c r="K259" s="4"/>
+      <c r="K259" s="10"/>
       <c r="L259" s="4"/>
       <c r="M259" s="4"/>
       <c r="N259" s="4"/>
@@ -15404,7 +15387,7 @@
         <v>1152</v>
       </c>
       <c r="J260" s="1"/>
-      <c r="K260" s="4"/>
+      <c r="K260" s="10"/>
       <c r="L260" s="4"/>
       <c r="M260" s="4"/>
       <c r="N260" s="4"/>
@@ -15443,7 +15426,7 @@
         <v>1188</v>
       </c>
       <c r="J261" s="1"/>
-      <c r="K261" s="4"/>
+      <c r="K261" s="10"/>
       <c r="L261" s="4"/>
       <c r="M261" s="4"/>
       <c r="N261" s="4"/>
@@ -15482,7 +15465,7 @@
         <v>1188</v>
       </c>
       <c r="J262" s="1"/>
-      <c r="K262" s="4"/>
+      <c r="K262" s="10"/>
       <c r="L262" s="4"/>
       <c r="M262" s="4"/>
       <c r="N262" s="4"/>
@@ -15521,7 +15504,7 @@
         <v>1188</v>
       </c>
       <c r="J263" s="1"/>
-      <c r="K263" s="4"/>
+      <c r="K263" s="10"/>
       <c r="L263" s="4"/>
       <c r="M263" s="4"/>
       <c r="N263" s="4"/>
@@ -15560,7 +15543,7 @@
         <v>1188</v>
       </c>
       <c r="J264" s="1"/>
-      <c r="K264" s="4"/>
+      <c r="K264" s="10"/>
       <c r="L264" s="4"/>
       <c r="M264" s="4"/>
       <c r="N264" s="4"/>
@@ -15599,7 +15582,7 @@
         <v>1188</v>
       </c>
       <c r="J265" s="1"/>
-      <c r="K265" s="4"/>
+      <c r="K265" s="10"/>
       <c r="L265" s="4"/>
       <c r="M265" s="4"/>
       <c r="N265" s="4"/>
@@ -15638,7 +15621,7 @@
         <v>1188</v>
       </c>
       <c r="J266" s="1"/>
-      <c r="K266" s="4"/>
+      <c r="K266" s="10"/>
       <c r="L266" s="4"/>
       <c r="M266" s="4"/>
       <c r="N266" s="4"/>
@@ -15677,7 +15660,7 @@
         <v>1188</v>
       </c>
       <c r="J267" s="1"/>
-      <c r="K267" s="4"/>
+      <c r="K267" s="10"/>
       <c r="L267" s="4"/>
       <c r="M267" s="4"/>
       <c r="N267" s="4"/>
@@ -15716,7 +15699,7 @@
         <v>1188</v>
       </c>
       <c r="J268" s="1"/>
-      <c r="K268" s="4"/>
+      <c r="K268" s="10"/>
       <c r="L268" s="4"/>
       <c r="M268" s="4"/>
       <c r="N268" s="4"/>
@@ -15755,7 +15738,7 @@
         <v>1215</v>
       </c>
       <c r="J269" s="1"/>
-      <c r="K269" s="4"/>
+      <c r="K269" s="10"/>
       <c r="L269" s="4"/>
       <c r="M269" s="4"/>
       <c r="N269" s="4"/>
@@ -15794,7 +15777,7 @@
         <v>1215</v>
       </c>
       <c r="J270" s="1"/>
-      <c r="K270" s="4"/>
+      <c r="K270" s="10"/>
       <c r="L270" s="4"/>
       <c r="M270" s="7"/>
       <c r="N270" s="7"/>
@@ -15833,7 +15816,7 @@
         <v>1215</v>
       </c>
       <c r="J271" s="1"/>
-      <c r="K271" s="4"/>
+      <c r="K271" s="10"/>
       <c r="L271" s="4"/>
       <c r="M271" s="4"/>
       <c r="N271" s="4"/>
@@ -15872,7 +15855,7 @@
         <v>1215</v>
       </c>
       <c r="J272" s="1"/>
-      <c r="K272" s="4"/>
+      <c r="K272" s="10"/>
       <c r="L272" s="4"/>
       <c r="M272" s="4"/>
       <c r="N272" s="4"/>
@@ -17802,16 +17785,10 @@
       <formula1>"Met, Not Met, Not Applicable"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{BCFF6073-2D8E-4466-8680-9CEBF1567098}"/>
-    <hyperlink ref="K4" r:id="rId2" xr:uid="{BD7817B6-9DB5-4CF7-84B0-C1AB7343EF4B}"/>
-    <hyperlink ref="K5:K8" r:id="rId3" display="https://securitybagel.github.io/CMMC-Bagel-Lite/policy-example.html" xr:uid="{6C72ACAA-3948-4C13-A585-200D818F64C4}"/>
-    <hyperlink ref="K9" r:id="rId4" xr:uid="{CA2472FF-C778-4DFC-9502-F52289AECB86}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId5"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>